--- a/Testing_and_Validation/01_Battery_Testing/Hasil Test Baterai.xlsx
+++ b/Testing_and_Validation/01_Battery_Testing/Hasil Test Baterai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haidar Files\OneDrive - MICROSOFT PREMIUM\RnD HMJ - Haidar Ali\Project - FaniaErsa\Testing_and_Validation\01_Battery_Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://loblawso-my.sharepoint.com/personal/haidarali_1drivepro_onmicrosoft_com/Documents/RnD HMJ - Haidar Ali/Project - FaniaErsa/Testing_and_Validation/01_Battery_Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A29D8-6BD1-4836-9698-C3C51CDB04B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{706A29D8-6BD1-4836-9698-C3C51CDB04B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE1FB6C-676A-4A2B-8419-8ECC0C6DDD9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analisis Baterai" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="180">
   <si>
     <t>Test Date</t>
   </si>
@@ -884,10 +884,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,13 +908,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,31 +926,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +952,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2391,7 +2391,7 @@
   </sheetPr>
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -2599,19 +2599,19 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="32">
         <v>1</v>
       </c>
       <c r="H15" s="11"/>
@@ -2627,80 +2627,80 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>146</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="32">
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="11"/>
       <c r="J21" t="s">
         <v>153</v>
@@ -2714,11 +2714,11 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="11"/>
       <c r="J22" t="s">
         <v>155</v>
@@ -2879,21 +2879,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="F15:F17"/>
@@ -2902,8 +2904,6 @@
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3139,8 +3139,8 @@
   </sheetPr>
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,18 +3198,18 @@
       <c r="C4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3217,18 +3217,18 @@
       <c r="C5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -3257,11 +3257,11 @@
       <c r="J6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -3290,11 +3290,11 @@
       <c r="J7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="47">
         <v>0.10511574074074075</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -3317,9 +3317,9 @@
       <c r="J8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -3549,11 +3549,11 @@
       <c r="J18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -3582,11 +3582,11 @@
       <c r="J19" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="47">
         <v>2.5925925925925925E-2</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -3610,10 +3610,12 @@
       <c r="I20" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3728,11 +3730,11 @@
       <c r="J27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -3757,9 +3759,9 @@
       <c r="J28" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -3833,11 +3835,11 @@
       <c r="J32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="49" t="s">
+      <c r="K32" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="50"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
       <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -3866,11 +3868,11 @@
       <c r="J33" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="47">
         <v>1.5972222222222221E-2</v>
       </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
       <c r="N33" s="11"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -3899,11 +3901,11 @@
       <c r="J34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="47">
         <v>1.9097222222222224E-2</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3923,13 +3925,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D30:M30"/>
     <mergeCell ref="K34:M34"/>
     <mergeCell ref="D26:M26"/>
     <mergeCell ref="C2:M2"/>
@@ -3946,6 +3941,13 @@
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D30:M30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
